--- a/data/trans_orig/P36B14_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B14_R-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCEF176B-27A1-4642-95C8-477567B19137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC07924-B7E9-465D-8EAD-CC63A2C16C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{842F6D86-9CD1-48B7-9113-CAA30C042162}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B7D329F0-9799-432F-BD55-4154682C9203}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="272">
   <si>
-    <t>Población que consume menos de una bebida azucarada por día en 2015 (Tasa respuesta: 99,39%)</t>
+    <t>Población que consume menos de una bebida azucarada por día en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,16 +75,16 @@
     <t>66,66%</t>
   </si>
   <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
   </si>
   <si>
     <t>73,91%</t>
   </si>
   <si>
-    <t>69,4%</t>
+    <t>69,48%</t>
   </si>
   <si>
     <t>78,17%</t>
@@ -93,10 +93,10 @@
     <t>70,19%</t>
   </si>
   <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
   </si>
   <si>
     <t>NO</t>
@@ -105,10 +105,10 @@
     <t>33,34%</t>
   </si>
   <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
   </si>
   <si>
     <t>26,09%</t>
@@ -117,16 +117,16 @@
     <t>21,83%</t>
   </si>
   <si>
-    <t>30,6%</t>
+    <t>30,52%</t>
   </si>
   <si>
     <t>29,81%</t>
   </si>
   <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>75,86%</t>
   </si>
   <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
   </si>
   <si>
     <t>77,6%</t>
   </si>
   <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
   </si>
   <si>
     <t>76,71%</t>
   </si>
   <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
   </si>
   <si>
     <t>24,14%</t>
   </si>
   <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
   </si>
   <si>
     <t>22,4%</t>
   </si>
   <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
   </si>
   <si>
     <t>23,29%</t>
   </si>
   <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -195,55 +195,55 @@
     <t>82,94%</t>
   </si>
   <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
   </si>
   <si>
     <t>82,26%</t>
   </si>
   <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
   </si>
   <si>
     <t>17,06%</t>
   </si>
   <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
   </si>
   <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
   </si>
   <si>
     <t>17,74%</t>
   </si>
   <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -252,55 +252,55 @@
     <t>85,54%</t>
   </si>
   <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
   </si>
   <si>
     <t>87,39%</t>
   </si>
   <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -309,55 +309,55 @@
     <t>95,93%</t>
   </si>
   <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>94,43%</t>
   </si>
   <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
   </si>
   <si>
     <t>95,16%</t>
   </si>
   <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
   </si>
   <si>
     <t>5,57%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -366,16 +366,16 @@
     <t>96,8%</t>
   </si>
   <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
   </si>
   <si>
     <t>97,42%</t>
   </si>
   <si>
-    <t>96,01%</t>
+    <t>95,77%</t>
   </si>
   <si>
     <t>98,45%</t>
@@ -384,19 +384,19 @@
     <t>97,15%</t>
   </si>
   <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
   </si>
   <si>
     <t>2,58%</t>
@@ -405,31 +405,31 @@
     <t>1,55%</t>
   </si>
   <si>
-    <t>3,99%</t>
+    <t>4,23%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
   </si>
   <si>
     <t>84,39%</t>
   </si>
   <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
   </si>
   <si>
     <t>86,73%</t>
   </si>
   <si>
-    <t>85,59%</t>
+    <t>85,49%</t>
   </si>
   <si>
     <t>87,8%</t>
@@ -438,19 +438,19 @@
     <t>85,58%</t>
   </si>
   <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
   <si>
     <t>13,27%</t>
@@ -459,16 +459,16 @@
     <t>12,2%</t>
   </si>
   <si>
-    <t>14,41%</t>
+    <t>14,51%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1264,7 +1264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96625187-0A37-428A-B491-CA40A6325173}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C872F1A-39D3-407C-8D92-43298DA1B866}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2483,7 +2483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA92E729-F3F6-4011-805C-AD86A904AC57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8878378-5129-4296-A4C5-86438ECF7672}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P36B14_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B14_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC07924-B7E9-465D-8EAD-CC63A2C16C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{905969CC-4D31-4E3D-B16F-D6E08637D8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B7D329F0-9799-432F-BD55-4154682C9203}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D727BCB-5A89-4A28-91AE-DEE784B16E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="268">
   <si>
     <t>Población que consume menos de una bebida azucarada por día en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -69,64 +69,64 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>66,66%</t>
   </si>
   <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
   </si>
   <si>
     <t>73,91%</t>
   </si>
   <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>70,19%</t>
   </si>
   <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>33,34%</t>
   </si>
   <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
   </si>
   <si>
     <t>26,09%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>29,81%</t>
   </si>
   <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>75,86%</t>
   </si>
   <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
   </si>
   <si>
     <t>77,6%</t>
   </si>
   <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
   </si>
   <si>
     <t>76,71%</t>
   </si>
   <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>24,14%</t>
   </si>
   <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
   </si>
   <si>
     <t>22,4%</t>
   </si>
   <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
   </si>
   <si>
     <t>23,29%</t>
   </si>
   <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -195,55 +195,55 @@
     <t>82,94%</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
   </si>
   <si>
     <t>82,26%</t>
   </si>
   <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
   </si>
   <si>
     <t>17,06%</t>
   </si>
   <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
   </si>
   <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
   </si>
   <si>
     <t>17,74%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -252,55 +252,55 @@
     <t>85,54%</t>
   </si>
   <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>89,24%</t>
   </si>
   <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>87,39%</t>
   </si>
   <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
   </si>
   <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -309,55 +309,55 @@
     <t>95,93%</t>
   </si>
   <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>94,43%</t>
   </si>
   <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>95,16%</t>
   </si>
   <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>5,57%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
   </si>
   <si>
     <t>4,84%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -366,55 +366,55 @@
     <t>96,8%</t>
   </si>
   <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
   </si>
   <si>
     <t>97,42%</t>
   </si>
   <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>97,15%</t>
   </si>
   <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>84,39%</t>
@@ -423,31 +423,28 @@
     <t>83,16%</t>
   </si>
   <si>
-    <t>85,68%</t>
+    <t>85,63%</t>
   </si>
   <si>
     <t>86,73%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>14,32%</t>
+    <t>14,37%</t>
   </si>
   <si>
     <t>16,84%</t>
@@ -456,19 +453,16 @@
     <t>13,27%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
+    <t>12,18%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -480,379 +474,373 @@
     <t>65,33%</t>
   </si>
   <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
   </si>
   <si>
     <t>63,61%</t>
   </si>
   <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
   </si>
   <si>
     <t>64,5%</t>
   </si>
   <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
   </si>
   <si>
     <t>34,67%</t>
   </si>
   <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
   </si>
   <si>
     <t>36,39%</t>
   </si>
   <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
   </si>
   <si>
     <t>35,5%</t>
   </si>
   <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
   </si>
   <si>
     <t>61,61%</t>
   </si>
   <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
   </si>
   <si>
     <t>74,64%</t>
   </si>
   <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
   </si>
   <si>
     <t>68,61%</t>
   </si>
   <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>38,39%</t>
   </si>
   <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
   </si>
   <si>
     <t>25,36%</t>
   </si>
   <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
   </si>
   <si>
     <t>31,39%</t>
   </si>
   <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
   </si>
   <si>
     <t>69,32%</t>
   </si>
   <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
   </si>
   <si>
     <t>71,47%</t>
   </si>
   <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
   </si>
   <si>
     <t>70,42%</t>
   </si>
   <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>30,68%</t>
   </si>
   <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
   </si>
   <si>
     <t>28,53%</t>
   </si>
   <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
   </si>
   <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
   </si>
   <si>
     <t>72,76%</t>
   </si>
   <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
   </si>
   <si>
     <t>76,45%</t>
   </si>
   <si>
-    <t>73,78%</t>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
   </si>
   <si>
     <t>79,1%</t>
   </si>
   <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
   </si>
   <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
+    <t>24,5%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C872F1A-39D3-407C-8D92-43298DA1B866}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3446C7F5-ED28-4C8E-8825-2275D64F66C6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2348,13 +2336,13 @@
         <v>5899683</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,13 +2357,13 @@
         <v>526300</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>460</v>
@@ -2384,13 +2372,13 @@
         <v>467390</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>957</v>
@@ -2399,13 +2387,13 @@
         <v>993690</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,7 +2449,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2483,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8878378-5129-4296-A4C5-86438ECF7672}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C9290-B5AC-4BF4-AE18-EB64CF1A705D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2500,7 +2488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2607,13 +2595,13 @@
         <v>246736</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>132</v>
@@ -2622,13 +2610,13 @@
         <v>225778</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>243</v>
@@ -2637,13 +2625,13 @@
         <v>472514</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2646,13 @@
         <v>130943</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
@@ -2673,13 +2661,13 @@
         <v>129179</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>136</v>
@@ -2688,13 +2676,13 @@
         <v>260122</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2750,13 @@
         <v>263922</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>346</v>
@@ -2777,13 +2765,13 @@
         <v>371341</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>538</v>
@@ -2792,13 +2780,13 @@
         <v>635263</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2801,13 @@
         <v>164474</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>113</v>
@@ -2828,13 +2816,13 @@
         <v>126196</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>223</v>
@@ -2843,13 +2831,13 @@
         <v>290670</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2905,13 @@
         <v>385391</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>622</v>
@@ -2932,13 +2920,13 @@
         <v>416154</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>1000</v>
@@ -2947,13 +2935,13 @@
         <v>801545</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +2956,13 @@
         <v>170589</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>221</v>
@@ -2983,13 +2971,13 @@
         <v>166152</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>388</v>
@@ -2998,13 +2986,13 @@
         <v>336741</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3060,13 @@
         <v>526764</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>877</v>
@@ -3087,13 +3075,13 @@
         <v>570434</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>1356</v>
@@ -3102,13 +3090,13 @@
         <v>1097198</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,13 +3111,13 @@
         <v>197226</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
@@ -3138,13 +3126,13 @@
         <v>175690</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>448</v>
@@ -3153,13 +3141,13 @@
         <v>372916</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3215,13 @@
         <v>441640</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>813</v>
@@ -3242,13 +3230,13 @@
         <v>472014</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>1307</v>
@@ -3257,13 +3245,13 @@
         <v>913655</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3266,13 @@
         <v>155565</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
@@ -3293,13 +3281,13 @@
         <v>123938</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>353</v>
@@ -3308,13 +3296,13 @@
         <v>279503</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3370,13 @@
         <v>548649</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>1454</v>
@@ -3397,13 +3385,13 @@
         <v>874046</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>2271</v>
@@ -3412,13 +3400,13 @@
         <v>1422695</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3421,13 @@
         <v>148171</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
         <v>251</v>
@@ -3448,13 +3436,13 @@
         <v>150671</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M20" s="7">
         <v>461</v>
@@ -3463,13 +3451,13 @@
         <v>298842</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3525,13 @@
         <v>2413102</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>4244</v>
@@ -3552,13 +3540,13 @@
         <v>2929767</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>6715</v>
@@ -3567,13 +3555,13 @@
         <v>5342869</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,13 +3576,13 @@
         <v>966968</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>1109</v>
@@ -3603,13 +3591,13 @@
         <v>871827</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>2009</v>
@@ -3618,13 +3606,13 @@
         <v>1838795</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,7 +3668,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B14_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B14_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{905969CC-4D31-4E3D-B16F-D6E08637D8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58D10486-4AF1-4D17-A9E4-D99D5EBFB4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D727BCB-5A89-4A28-91AE-DEE784B16E5B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1D3E8637-BEE2-4EB7-BFC7-0A77913B9506}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="301">
   <si>
     <t>Población que consume menos de una bebida azucarada por día en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -132,7 +132,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>75,86%</t>
@@ -189,7 +189,7 @@
     <t>25,79%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>82,94%</t>
@@ -246,7 +246,7 @@
     <t>19,93%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>85,54%</t>
@@ -303,7 +303,7 @@
     <t>14,78%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>95,93%</t>
@@ -360,61 +360,118 @@
     <t>6,69%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>84,39%</t>
@@ -471,376 +528,418 @@
     <t>Población que consume menos de una bebida azucarada por día en 2023 (Tasa respuesta: 99,78%)</t>
   </si>
   <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
   </si>
 </sst>
 </file>
@@ -1252,8 +1351,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3446C7F5-ED28-4C8E-8825-2275D64F66C6}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B506326-49DC-4B52-B133-C07CAB7F4ACA}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2145,10 +2244,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>599</v>
+        <v>313</v>
       </c>
       <c r="D19" s="7">
-        <v>563739</v>
+        <v>321774</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2160,10 +2259,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>630</v>
+        <v>345</v>
       </c>
       <c r="I19" s="7">
-        <v>746268</v>
+        <v>368218</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2175,10 +2274,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>1229</v>
+        <v>658</v>
       </c>
       <c r="N19" s="7">
-        <v>1310007</v>
+        <v>689992</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2196,10 +2295,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>18610</v>
+        <v>10437</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2211,10 +2310,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I20" s="7">
-        <v>19796</v>
+        <v>8438</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2226,10 +2325,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N20" s="7">
-        <v>38406</v>
+        <v>18875</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2247,10 +2346,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>618</v>
+        <v>323</v>
       </c>
       <c r="D21" s="7">
-        <v>582349</v>
+        <v>332211</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2262,10 +2361,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>647</v>
+        <v>353</v>
       </c>
       <c r="I21" s="7">
-        <v>766064</v>
+        <v>376656</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2277,10 +2376,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1265</v>
+        <v>676</v>
       </c>
       <c r="N21" s="7">
-        <v>1348413</v>
+        <v>708867</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2294,55 +2393,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2712</v>
+        <v>286</v>
       </c>
       <c r="D22" s="7">
-        <v>2844806</v>
+        <v>241965</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>2860</v>
+        <v>285</v>
       </c>
       <c r="I22" s="7">
-        <v>3054878</v>
+        <v>378050</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>5572</v>
+        <v>571</v>
       </c>
       <c r="N22" s="7">
-        <v>5899683</v>
+        <v>620014</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,49 +2450,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>497</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7">
-        <v>526300</v>
+        <v>8173</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>460</v>
+        <v>9</v>
       </c>
       <c r="I23" s="7">
-        <v>467390</v>
+        <v>11358</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>957</v>
+        <v>18</v>
       </c>
       <c r="N23" s="7">
-        <v>993690</v>
+        <v>19532</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,63 +2501,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>295</v>
+      </c>
+      <c r="D24" s="7">
+        <v>250138</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>294</v>
+      </c>
+      <c r="I24" s="7">
+        <v>389408</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>589</v>
+      </c>
+      <c r="N24" s="7">
+        <v>639546</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2712</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2844806</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2860</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3054877</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5572</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5899683</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>497</v>
+      </c>
+      <c r="D26" s="7">
+        <v>526300</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="7">
+        <v>460</v>
+      </c>
+      <c r="I26" s="7">
+        <v>467390</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M26" s="7">
+        <v>957</v>
+      </c>
+      <c r="N26" s="7">
+        <v>993690</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3371106</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3320</v>
       </c>
-      <c r="I24" s="7">
-        <v>3522268</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3522267</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6529</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6893373</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2471,8 +2726,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9C9290-B5AC-4BF4-AE18-EB64CF1A705D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0C39EC-7E34-4B6C-8BDF-355460F0081C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2488,7 +2743,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2592,46 +2847,46 @@
         <v>111</v>
       </c>
       <c r="D4" s="7">
-        <v>246736</v>
+        <v>267552</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>132</v>
       </c>
       <c r="I4" s="7">
-        <v>225778</v>
+        <v>202181</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>243</v>
       </c>
       <c r="N4" s="7">
-        <v>472514</v>
+        <v>469732</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,46 +2898,46 @@
         <v>61</v>
       </c>
       <c r="D5" s="7">
-        <v>130943</v>
+        <v>132435</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>75</v>
       </c>
       <c r="I5" s="7">
-        <v>129179</v>
+        <v>111019</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>136</v>
       </c>
       <c r="N5" s="7">
-        <v>260122</v>
+        <v>243455</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,7 +2949,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2709,7 +2964,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2724,7 +2979,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2747,46 +3002,46 @@
         <v>192</v>
       </c>
       <c r="D7" s="7">
-        <v>263922</v>
+        <v>266454</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>346</v>
       </c>
       <c r="I7" s="7">
-        <v>371341</v>
+        <v>399050</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>538</v>
       </c>
       <c r="N7" s="7">
-        <v>635263</v>
+        <v>665504</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,46 +3053,46 @@
         <v>110</v>
       </c>
       <c r="D8" s="7">
-        <v>164474</v>
+        <v>157093</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>113</v>
       </c>
       <c r="I8" s="7">
-        <v>126196</v>
+        <v>111457</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>223</v>
       </c>
       <c r="N8" s="7">
-        <v>290670</v>
+        <v>268550</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +3104,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2864,7 +3119,7 @@
         <v>459</v>
       </c>
       <c r="I9" s="7">
-        <v>497537</v>
+        <v>510507</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2879,7 +3134,7 @@
         <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>925933</v>
+        <v>934054</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2902,46 +3157,46 @@
         <v>378</v>
       </c>
       <c r="D10" s="7">
-        <v>385391</v>
+        <v>378423</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>622</v>
       </c>
       <c r="I10" s="7">
-        <v>416154</v>
+        <v>392111</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>1000</v>
       </c>
       <c r="N10" s="7">
-        <v>801545</v>
+        <v>770534</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,46 +3208,46 @@
         <v>167</v>
       </c>
       <c r="D11" s="7">
-        <v>170589</v>
+        <v>156819</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>221</v>
       </c>
       <c r="I11" s="7">
-        <v>166152</v>
+        <v>149309</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>388</v>
       </c>
       <c r="N11" s="7">
-        <v>336741</v>
+        <v>306128</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,7 +3259,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>555980</v>
+        <v>535242</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3019,7 +3274,7 @@
         <v>843</v>
       </c>
       <c r="I12" s="7">
-        <v>582306</v>
+        <v>541420</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3034,7 +3289,7 @@
         <v>1388</v>
       </c>
       <c r="N12" s="7">
-        <v>1138286</v>
+        <v>1076662</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3057,46 +3312,46 @@
         <v>479</v>
       </c>
       <c r="D13" s="7">
-        <v>526764</v>
+        <v>703653</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
         <v>877</v>
       </c>
       <c r="I13" s="7">
-        <v>570434</v>
+        <v>554450</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
         <v>1356</v>
       </c>
       <c r="N13" s="7">
-        <v>1097198</v>
+        <v>1258103</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,46 +3363,46 @@
         <v>186</v>
       </c>
       <c r="D14" s="7">
-        <v>197226</v>
+        <v>184133</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>262</v>
       </c>
       <c r="I14" s="7">
-        <v>175690</v>
+        <v>157367</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>448</v>
       </c>
       <c r="N14" s="7">
-        <v>372916</v>
+        <v>341501</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,7 +3414,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3174,7 +3429,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746124</v>
+        <v>711817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3189,7 +3444,7 @@
         <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1470114</v>
+        <v>1599604</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3212,46 +3467,46 @@
         <v>494</v>
       </c>
       <c r="D16" s="7">
-        <v>441640</v>
+        <v>418603</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="H16" s="7">
         <v>813</v>
       </c>
       <c r="I16" s="7">
-        <v>472014</v>
+        <v>437378</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>1307</v>
       </c>
       <c r="N16" s="7">
-        <v>913655</v>
+        <v>855982</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,46 +3518,46 @@
         <v>166</v>
       </c>
       <c r="D17" s="7">
-        <v>155565</v>
+        <v>139804</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>187</v>
       </c>
       <c r="I17" s="7">
-        <v>123938</v>
+        <v>109488</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>353</v>
       </c>
       <c r="N17" s="7">
-        <v>279503</v>
+        <v>249292</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,7 +3569,7 @@
         <v>660</v>
       </c>
       <c r="D18" s="7">
-        <v>597205</v>
+        <v>558407</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3329,7 +3584,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>595952</v>
+        <v>546866</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3344,7 +3599,7 @@
         <v>1660</v>
       </c>
       <c r="N18" s="7">
-        <v>1193158</v>
+        <v>1105274</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3364,49 +3619,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>817</v>
+        <v>454</v>
       </c>
       <c r="D19" s="7">
-        <v>548649</v>
+        <v>293141</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
-        <v>1454</v>
+        <v>696</v>
       </c>
       <c r="I19" s="7">
-        <v>874046</v>
+        <v>539889</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
-        <v>2271</v>
+        <v>1150</v>
       </c>
       <c r="N19" s="7">
-        <v>1422695</v>
+        <v>833031</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3415,49 +3670,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c r="D20" s="7">
-        <v>148171</v>
+        <v>74105</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H20" s="7">
+        <v>129</v>
+      </c>
+      <c r="I20" s="7">
+        <v>67312</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M20" s="7">
         <v>244</v>
       </c>
-      <c r="H20" s="7">
-        <v>251</v>
-      </c>
-      <c r="I20" s="7">
-        <v>150671</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="M20" s="7">
-        <v>461</v>
-      </c>
       <c r="N20" s="7">
-        <v>298842</v>
+        <v>141417</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>45</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,10 +3721,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696820</v>
+        <v>367246</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3481,10 +3736,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1024717</v>
+        <v>607201</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3496,10 +3751,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1721537</v>
+        <v>974448</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3513,55 +3768,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2471</v>
+        <v>363</v>
       </c>
       <c r="D22" s="7">
-        <v>2413102</v>
+        <v>224349</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
-        <v>4244</v>
+        <v>758</v>
       </c>
       <c r="I22" s="7">
-        <v>2929767</v>
+        <v>361242</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
-        <v>6715</v>
+        <v>1121</v>
       </c>
       <c r="N22" s="7">
-        <v>5342869</v>
+        <v>585592</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,49 +3825,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>900</v>
+        <v>95</v>
       </c>
       <c r="D23" s="7">
-        <v>966968</v>
+        <v>58410</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
-        <v>1109</v>
+        <v>122</v>
       </c>
       <c r="I23" s="7">
-        <v>871827</v>
+        <v>64041</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
-        <v>2009</v>
+        <v>217</v>
       </c>
       <c r="N23" s="7">
-        <v>1838795</v>
+        <v>122451</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3621,63 +3876,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425283</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708043</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2471</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2552177</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4244</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2886300</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M25" s="7">
+        <v>6715</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5438477</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>900</v>
+      </c>
+      <c r="D26" s="7">
+        <v>902799</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1109</v>
+      </c>
+      <c r="I26" s="7">
+        <v>769995</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2009</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1672793</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3371</v>
       </c>
-      <c r="D24" s="7">
-        <v>3380070</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3454976</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5353</v>
       </c>
-      <c r="I24" s="7">
-        <v>3801594</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3656295</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8724</v>
       </c>
-      <c r="N24" s="7">
-        <v>7181664</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7111270</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
